--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.124</v>
+        <v>-21.985</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -519,7 +519,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.842</v>
+        <v>-11.626</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-22.14</v>
+        <v>-21.852</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.470000000000001</v>
+        <v>5.872</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.302</v>
+        <v>-22.225</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.66</v>
+        <v>-12.237</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.008</v>
+        <v>-12.018</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.07</v>
+        <v>-21.571</v>
       </c>
       <c r="B21" t="n">
-        <v>7.392</v>
+        <v>6.891000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -740,7 +740,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>8.321999999999999</v>
+        <v>7.358</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.902</v>
+        <v>-20.916</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.286</v>
+        <v>5.378</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.824</v>
+        <v>-21.683</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.258</v>
+        <v>-21.398</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.846000000000001</v>
+        <v>6.299000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.516</v>
+        <v>5.827</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.124</v>
+        <v>-21.498</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -925,7 +925,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.492</v>
+        <v>-12.446</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.321999999999999</v>
+        <v>7.150999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.774000000000001</v>
+        <v>7.311</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.734</v>
+        <v>-20.624</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.536</v>
+        <v>-12.275</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.132</v>
+        <v>5.451000000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.536</v>
+        <v>-12.454</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.51</v>
+        <v>5.48</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>6.468000000000001</v>
+        <v>6.470000000000001</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1135,7 +1135,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.112</v>
+        <v>-13.233</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.724</v>
+        <v>-11.09</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,10 +1160,10 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.192</v>
+        <v>5.272</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.928</v>
+        <v>-10.877</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.866</v>
+        <v>-21.122</v>
       </c>
       <c r="B53" t="n">
-        <v>5.9</v>
+        <v>6.327</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>6.174</v>
+        <v>5.666</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.48</v>
+        <v>-13.143</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.596</v>
+        <v>-21.619</v>
       </c>
       <c r="B57" t="n">
-        <v>4.972</v>
+        <v>6.093</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.844</v>
+        <v>-13.361</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1247,7 +1247,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.798</v>
+        <v>-12.59</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.786</v>
+        <v>-22.574</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-11.252</v>
+        <v>-10.885</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.534</v>
+        <v>-21.515</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.058</v>
+        <v>-11.507</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.694</v>
+        <v>-21.614</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>4.796</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1426,7 +1426,7 @@
         <v>-21.28</v>
       </c>
       <c r="B71" t="n">
-        <v>4.996</v>
+        <v>4.972</v>
       </c>
       <c r="C71" t="n">
         <v>-9.93</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.656</v>
+        <v>-21.195</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.828</v>
+        <v>-12.335</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.484</v>
+        <v>-21.778</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-11.408</v>
+        <v>-12.391</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>6.632000000000001</v>
+        <v>5.613000000000001</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,7 +1650,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.442</v>
+        <v>5.766000000000001</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.722</v>
+        <v>5.747999999999999</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.034</v>
+        <v>-21.111</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1723,7 +1723,7 @@
         <v>4.82</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.076</v>
+        <v>-10.888</v>
       </c>
       <c r="D92" t="n">
         <v>-6.84</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.786</v>
+        <v>-21.687</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.99</v>
+        <v>-10.924</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.398</v>
+        <v>-10.867</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.748</v>
+        <v>-11.424</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.732</v>
+        <v>-22.615</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1846,10 +1846,10 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.324</v>
+        <v>6.084000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.358</v>
+        <v>-12.879</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.866</v>
+        <v>-21.894</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
